--- a/C语言课程讲义_笔记/B站鹏哥/2024_6_12 P_44 函数的定义和声明.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_6_12 P_44 函数的定义和声明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test_2024_6_12 P_43</t>
   </si>
@@ -40,12 +40,20 @@
     <t>不写也可以，不影响</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>为什么要分离头文件和源文件？——如下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情见P44，详细的讲解了头源文件分离加密出售的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +63,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -81,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,6 +454,234 @@
         <a:xfrm>
           <a:off x="14906625" y="13992225"/>
           <a:ext cx="3171429" cy="2600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>312519</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>46651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="20888325"/>
+          <a:ext cx="14447619" cy="7790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>56790</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>104663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15697200" y="20983575"/>
+          <a:ext cx="2876190" cy="895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>198662</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>161302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="29641800"/>
+          <a:ext cx="10904762" cy="4980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>513870</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>104598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14506575" y="33147000"/>
+          <a:ext cx="3838095" cy="1419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180345</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>284014</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>132665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12524745" y="28679775"/>
+          <a:ext cx="11076469" cy="4371290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>408742</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>161736</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="35166300"/>
+          <a:ext cx="6666667" cy="1514286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -734,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L2:Y18"/>
+  <dimension ref="E2:Y121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="AA77" sqref="AA76:AA77"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="Y204" sqref="Y204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -768,6 +1014,14 @@
       </c>
       <c r="Y18" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/C语言课程讲义_笔记/B站鹏哥/2024_6_12 P_44 函数的定义和声明.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_6_12 P_44 函数的定义和声明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Test_2024_6_12 P_43</t>
   </si>
@@ -46,6 +46,22 @@
   </si>
   <si>
     <t>详情见P44，详细的讲解了头源文件分离加密出售的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如阶乘，就是典型的递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斐波那契数列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">这里用递归显然不合适了，复杂程度太大，大量的重复计算    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,6 +698,272 @@
         <a:xfrm>
           <a:off x="1971675" y="35166300"/>
           <a:ext cx="6666667" cy="1514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>322376</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>171049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="37252275"/>
+          <a:ext cx="11790476" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>247223</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>75627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16030575" y="36814125"/>
+          <a:ext cx="3419048" cy="4580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304148</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>76075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="42110025"/>
+          <a:ext cx="5219048" cy="1000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>313458</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>28245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="43338750"/>
+          <a:ext cx="6933333" cy="2638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>599332</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>170859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11115675" y="42424350"/>
+          <a:ext cx="5942857" cy="4723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85296</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>123076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="46253400"/>
+          <a:ext cx="3428571" cy="5990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>437555</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>75983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8705850" y="48577500"/>
+          <a:ext cx="4761905" cy="1733333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -980,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:Y121"/>
+  <dimension ref="E2:AA260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="Y204" sqref="Y204"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="S296" sqref="S296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1024,6 +1306,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="224" spans="21:21" x14ac:dyDescent="0.15">
+      <c r="U224" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M249" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="15:27" x14ac:dyDescent="0.15">
+      <c r="O258" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="15:27" x14ac:dyDescent="0.15">
+      <c r="AA260" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
